--- a/Code/Results/Cases/Case_1_146/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_146/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.7170509950374132</v>
+        <v>1.017800088035567</v>
       </c>
       <c r="D2">
-        <v>1.009483238344941</v>
+        <v>1.033195546244979</v>
       </c>
       <c r="E2">
-        <v>0.7608793889206082</v>
+        <v>1.018894137335163</v>
       </c>
       <c r="F2">
-        <v>0.7413425397770598</v>
+        <v>1.026603798390642</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.022909326660383</v>
+        <v>1.032455306622417</v>
       </c>
       <c r="J2">
-        <v>0.7529579961924028</v>
+        <v>1.023012145862818</v>
       </c>
       <c r="K2">
-        <v>1.0208120188511</v>
+        <v>1.035998593965702</v>
       </c>
       <c r="L2">
-        <v>0.7771110715198648</v>
+        <v>1.021738998724512</v>
       </c>
       <c r="M2">
-        <v>0.758152821430613</v>
+        <v>1.029425961288676</v>
       </c>
       <c r="N2">
-        <v>0.7540272829124853</v>
+        <v>1.024464940451079</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.8014985864608044</v>
+        <v>1.022068028152732</v>
       </c>
       <c r="D3">
-        <v>1.021996373483075</v>
+        <v>1.033967689226101</v>
       </c>
       <c r="E3">
-        <v>0.8327911565243908</v>
+        <v>1.022618182624449</v>
       </c>
       <c r="F3">
-        <v>0.823816384737976</v>
+        <v>1.030636451199123</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033697563670847</v>
+        <v>1.032872349603414</v>
       </c>
       <c r="J3">
-        <v>0.8293858738496629</v>
+        <v>1.026898778688175</v>
       </c>
       <c r="K3">
-        <v>1.032355334726642</v>
+        <v>1.036579765047623</v>
       </c>
       <c r="L3">
-        <v>0.8461297284575235</v>
+        <v>1.025260943140016</v>
       </c>
       <c r="M3">
-        <v>0.83734129312966</v>
+        <v>1.033257457600933</v>
       </c>
       <c r="N3">
-        <v>0.8305636969224188</v>
+        <v>1.028357092740849</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.8341793800210099</v>
+        <v>1.024790381117828</v>
       </c>
       <c r="D4">
-        <v>1.0274615395267</v>
+        <v>1.034459175664764</v>
       </c>
       <c r="E4">
-        <v>0.8608132570312479</v>
+        <v>1.024993304244072</v>
       </c>
       <c r="F4">
-        <v>0.8561264029516171</v>
+        <v>1.033197377007351</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038142086261778</v>
+        <v>1.033133035514955</v>
       </c>
       <c r="J4">
-        <v>0.8590434681588078</v>
+        <v>1.029375600737346</v>
       </c>
       <c r="K4">
-        <v>1.037239451410987</v>
+        <v>1.036947043204712</v>
       </c>
       <c r="L4">
-        <v>0.8729431286473104</v>
+        <v>1.027505426171509</v>
       </c>
       <c r="M4">
-        <v>0.8683396021175001</v>
+        <v>1.035688449974263</v>
       </c>
       <c r="N4">
-        <v>0.8602634084172562</v>
+        <v>1.030837432161425</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.8459053874201281</v>
+        <v>1.025925781571071</v>
       </c>
       <c r="D5">
-        <v>1.029499994215641</v>
+        <v>1.034663882202422</v>
       </c>
       <c r="E5">
-        <v>0.8708880284117455</v>
+        <v>1.025983811699965</v>
       </c>
       <c r="F5">
-        <v>0.867740789193753</v>
+        <v>1.034262718673621</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039762216790606</v>
+        <v>1.033240466388023</v>
       </c>
       <c r="J5">
-        <v>0.8696882247857604</v>
+        <v>1.030408043806647</v>
       </c>
       <c r="K5">
-        <v>1.039038942871334</v>
+        <v>1.037099379581727</v>
       </c>
       <c r="L5">
-        <v>0.8825705471078394</v>
+        <v>1.028441036548954</v>
       </c>
       <c r="M5">
-        <v>0.8794760565062023</v>
+        <v>1.036699211569928</v>
       </c>
       <c r="N5">
-        <v>0.8709232818195897</v>
+        <v>1.031871341418307</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.8477859291413516</v>
+        <v>1.026115897351467</v>
       </c>
       <c r="D6">
-        <v>1.029830569780035</v>
+        <v>1.034698142048261</v>
       </c>
       <c r="E6">
-        <v>0.8725046641009195</v>
+        <v>1.026149661595702</v>
       </c>
       <c r="F6">
-        <v>0.8696039507416876</v>
+        <v>1.034440942637748</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04002306204218</v>
+        <v>1.033258378695465</v>
       </c>
       <c r="J6">
-        <v>0.8713954068295648</v>
+        <v>1.030580887391164</v>
       </c>
       <c r="K6">
-        <v>1.039329647156481</v>
+        <v>1.037124837259005</v>
       </c>
       <c r="L6">
-        <v>0.8841147313494253</v>
+        <v>1.028597670106555</v>
       </c>
       <c r="M6">
-        <v>0.8812621678014521</v>
+        <v>1.036868273573103</v>
       </c>
       <c r="N6">
-        <v>0.8726328882577128</v>
+        <v>1.03204443046054</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.8343424858544692</v>
+        <v>1.024805587633108</v>
       </c>
       <c r="D7">
-        <v>1.02748962072885</v>
+        <v>1.03446191844057</v>
       </c>
       <c r="E7">
-        <v>0.860953325741954</v>
+        <v>1.025006570492382</v>
       </c>
       <c r="F7">
-        <v>0.8562879064182451</v>
+        <v>1.033211656014271</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038164541610776</v>
+        <v>1.033134479461276</v>
       </c>
       <c r="J7">
-        <v>0.8591915280673589</v>
+        <v>1.029389430524962</v>
       </c>
       <c r="K7">
-        <v>1.037264321665257</v>
+        <v>1.036949086809835</v>
       </c>
       <c r="L7">
-        <v>0.873077026127255</v>
+        <v>1.027517958801846</v>
       </c>
       <c r="M7">
-        <v>0.8684944863184402</v>
+        <v>1.035701999520818</v>
       </c>
       <c r="N7">
-        <v>0.8604116785878605</v>
+        <v>1.030851281588925</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.7549879893788812</v>
+        <v>1.019250796406235</v>
       </c>
       <c r="D8">
-        <v>1.01480407889426</v>
+        <v>1.033458202917035</v>
       </c>
       <c r="E8">
-        <v>0.7930824309428054</v>
+        <v>1.020160033003057</v>
       </c>
       <c r="F8">
-        <v>0.7781401897217237</v>
+        <v>1.027976893379196</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027610109610293</v>
+        <v>1.032598167485443</v>
       </c>
       <c r="J8">
-        <v>0.787238893901537</v>
+        <v>1.024333726612973</v>
       </c>
       <c r="K8">
-        <v>1.025787185017624</v>
+        <v>1.036196842267722</v>
       </c>
       <c r="L8">
-        <v>0.8080528797190815</v>
+        <v>1.022936560305088</v>
       </c>
       <c r="M8">
-        <v>0.793490413948697</v>
+        <v>1.030731020661109</v>
       </c>
       <c r="N8">
-        <v>0.7883568634284406</v>
+        <v>1.025788397997484</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.7549879893788812</v>
+        <v>1.009146104565222</v>
       </c>
       <c r="D9">
-        <v>1.01480407889426</v>
+        <v>1.031625510542972</v>
       </c>
       <c r="E9">
-        <v>0.7930824309428054</v>
+        <v>1.011341455394019</v>
       </c>
       <c r="F9">
-        <v>0.7781401897217237</v>
+        <v>1.018365623020189</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027610109610293</v>
+        <v>1.031581292705645</v>
       </c>
       <c r="J9">
-        <v>0.787238893901537</v>
+        <v>1.015118789941926</v>
       </c>
       <c r="K9">
-        <v>1.025787185017624</v>
+        <v>1.034802424814877</v>
       </c>
       <c r="L9">
-        <v>0.8080528797190815</v>
+        <v>1.014586628014222</v>
       </c>
       <c r="M9">
-        <v>0.793490413948697</v>
+        <v>1.021586820279749</v>
       </c>
       <c r="N9">
-        <v>0.7883568634284406</v>
+        <v>1.016560375059396</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.7549879893788812</v>
+        <v>1.002174007647134</v>
       </c>
       <c r="D10">
-        <v>1.01480407889426</v>
+        <v>1.030358193332946</v>
       </c>
       <c r="E10">
-        <v>0.7930824309428054</v>
+        <v>1.005255391497313</v>
       </c>
       <c r="F10">
-        <v>0.7781401897217237</v>
+        <v>1.011674696245521</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027610109610293</v>
+        <v>1.030852693276357</v>
       </c>
       <c r="J10">
-        <v>0.787238893901537</v>
+        <v>1.008748410132611</v>
       </c>
       <c r="K10">
-        <v>1.025787185017624</v>
+        <v>1.033824071269007</v>
       </c>
       <c r="L10">
-        <v>0.8080528797190815</v>
+        <v>1.008814557471636</v>
       </c>
       <c r="M10">
-        <v>0.793490413948697</v>
+        <v>1.015209518669031</v>
       </c>
       <c r="N10">
-        <v>0.7883568634284406</v>
+        <v>1.010180948580059</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.7549879893788812</v>
+        <v>0.9990936587716028</v>
       </c>
       <c r="D11">
-        <v>1.01480407889426</v>
+        <v>1.029798032491476</v>
       </c>
       <c r="E11">
-        <v>0.7930824309428054</v>
+        <v>1.00256621685782</v>
       </c>
       <c r="F11">
-        <v>0.7781401897217237</v>
+        <v>1.008704654986604</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027610109610293</v>
+        <v>1.030524600704798</v>
       </c>
       <c r="J11">
-        <v>0.787238893901537</v>
+        <v>1.005931024164105</v>
       </c>
       <c r="K11">
-        <v>1.025787185017624</v>
+        <v>1.033388281081302</v>
       </c>
       <c r="L11">
-        <v>0.8080528797190815</v>
+        <v>1.006261857414141</v>
       </c>
       <c r="M11">
-        <v>0.793490413948697</v>
+        <v>1.012375986718477</v>
       </c>
       <c r="N11">
-        <v>0.7883568634284406</v>
+        <v>1.007359561600319</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.7549879893788812</v>
+        <v>0.9979397605317367</v>
       </c>
       <c r="D12">
-        <v>1.01480407889426</v>
+        <v>1.029588195173215</v>
       </c>
       <c r="E12">
-        <v>0.7930824309428054</v>
+        <v>1.001558813250288</v>
       </c>
       <c r="F12">
-        <v>0.7781401897217237</v>
+        <v>1.00758999962792</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027610109610293</v>
+        <v>1.030400785558786</v>
       </c>
       <c r="J12">
-        <v>0.787238893901537</v>
+        <v>1.004875199893915</v>
       </c>
       <c r="K12">
-        <v>1.025787185017624</v>
+        <v>1.03322452840547</v>
       </c>
       <c r="L12">
-        <v>0.8080528797190815</v>
+        <v>1.005305236422759</v>
       </c>
       <c r="M12">
-        <v>0.793490413948697</v>
+        <v>1.011312158993767</v>
       </c>
       <c r="N12">
-        <v>0.7883568634284406</v>
+        <v>1.006302237938561</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.7549879893788812</v>
+        <v>0.998187723763616</v>
       </c>
       <c r="D13">
-        <v>1.01480407889426</v>
+        <v>1.029633286953088</v>
       </c>
       <c r="E13">
-        <v>0.7930824309428054</v>
+        <v>1.001775297702089</v>
       </c>
       <c r="F13">
-        <v>0.7781401897217237</v>
+        <v>1.007829623626836</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027610109610293</v>
+        <v>1.03042743332659</v>
       </c>
       <c r="J13">
-        <v>0.787238893901537</v>
+        <v>1.00510210733953</v>
       </c>
       <c r="K13">
-        <v>1.025787185017624</v>
+        <v>1.033259739933285</v>
       </c>
       <c r="L13">
-        <v>0.8080528797190815</v>
+        <v>1.005510823551194</v>
       </c>
       <c r="M13">
-        <v>0.793490413948697</v>
+        <v>1.011540874509949</v>
       </c>
       <c r="N13">
-        <v>0.7883568634284406</v>
+        <v>1.006529467618775</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.7549879893788812</v>
+        <v>0.9989984784386189</v>
       </c>
       <c r="D14">
-        <v>1.01480407889426</v>
+        <v>1.029780723685592</v>
       </c>
       <c r="E14">
-        <v>0.7930824309428054</v>
+        <v>1.002483121041648</v>
       </c>
       <c r="F14">
-        <v>0.7781401897217237</v>
+        <v>1.008612753850853</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027610109610293</v>
+        <v>1.030514406144183</v>
       </c>
       <c r="J14">
-        <v>0.787238893901537</v>
+        <v>1.005843942330964</v>
       </c>
       <c r="K14">
-        <v>1.025787185017624</v>
+        <v>1.033374783928876</v>
       </c>
       <c r="L14">
-        <v>0.8080528797190815</v>
+        <v>1.006182957395123</v>
       </c>
       <c r="M14">
-        <v>0.793490413948697</v>
+        <v>1.01228828442813</v>
       </c>
       <c r="N14">
-        <v>0.7883568634284406</v>
+        <v>1.007272356100987</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.7549879893788812</v>
+        <v>0.9994967078469681</v>
       </c>
       <c r="D15">
-        <v>1.01480407889426</v>
+        <v>1.02987132824512</v>
       </c>
       <c r="E15">
-        <v>0.7930824309428054</v>
+        <v>1.002918091459799</v>
       </c>
       <c r="F15">
-        <v>0.7781401897217237</v>
+        <v>1.00909373327786</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027610109610293</v>
+        <v>1.030567733323051</v>
       </c>
       <c r="J15">
-        <v>0.787238893901537</v>
+        <v>1.006299761844885</v>
       </c>
       <c r="K15">
-        <v>1.025787185017624</v>
+        <v>1.033445415420255</v>
       </c>
       <c r="L15">
-        <v>0.8080528797190815</v>
+        <v>1.006595950640346</v>
       </c>
       <c r="M15">
-        <v>0.793490413948697</v>
+        <v>1.012747272046497</v>
       </c>
       <c r="N15">
-        <v>0.7883568634284406</v>
+        <v>1.007728822930901</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.7549879893788812</v>
+        <v>1.002377105190726</v>
       </c>
       <c r="D16">
-        <v>1.01480407889426</v>
+        <v>1.030395124453193</v>
       </c>
       <c r="E16">
-        <v>0.7930824309428054</v>
+        <v>1.005432691983264</v>
       </c>
       <c r="F16">
-        <v>0.7781401897217237</v>
+        <v>1.011870231048913</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027610109610293</v>
+        <v>1.03087419767178</v>
       </c>
       <c r="J16">
-        <v>0.787238893901537</v>
+        <v>1.008934109521091</v>
       </c>
       <c r="K16">
-        <v>1.025787185017624</v>
+        <v>1.033852732539521</v>
       </c>
       <c r="L16">
-        <v>0.8080528797190815</v>
+        <v>1.008982812477802</v>
       </c>
       <c r="M16">
-        <v>0.793490413948697</v>
+        <v>1.015396010026079</v>
       </c>
       <c r="N16">
-        <v>0.7883568634284406</v>
+        <v>1.010366911682971</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.7549879893788812</v>
+        <v>1.004167126169284</v>
       </c>
       <c r="D17">
-        <v>1.01480407889426</v>
+        <v>1.030720596852795</v>
       </c>
       <c r="E17">
-        <v>0.7930824309428054</v>
+        <v>1.006995315812413</v>
       </c>
       <c r="F17">
-        <v>0.7781401897217237</v>
+        <v>1.01359200792516</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027610109610293</v>
+        <v>1.031063023601321</v>
       </c>
       <c r="J17">
-        <v>0.787238893901537</v>
+        <v>1.010570460760525</v>
       </c>
       <c r="K17">
-        <v>1.025787185017624</v>
+        <v>1.034104939832208</v>
       </c>
       <c r="L17">
-        <v>0.8080528797190815</v>
+        <v>1.010465455434491</v>
       </c>
       <c r="M17">
-        <v>0.793490413948697</v>
+        <v>1.017037846795745</v>
       </c>
       <c r="N17">
-        <v>0.7883568634284406</v>
+        <v>1.012005586728857</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.7549879893788812</v>
+        <v>1.005205327480394</v>
       </c>
       <c r="D18">
-        <v>1.01480407889426</v>
+        <v>1.030909342989097</v>
       </c>
       <c r="E18">
-        <v>0.7930824309428054</v>
+        <v>1.007901600747505</v>
       </c>
       <c r="F18">
-        <v>0.7781401897217237</v>
+        <v>1.014589300579567</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027610109610293</v>
+        <v>1.03117195023187</v>
       </c>
       <c r="J18">
-        <v>0.787238893901537</v>
+        <v>1.011519259701929</v>
       </c>
       <c r="K18">
-        <v>1.025787185017624</v>
+        <v>1.034250878999997</v>
       </c>
       <c r="L18">
-        <v>0.8080528797190815</v>
+        <v>1.011325137517374</v>
       </c>
       <c r="M18">
-        <v>0.793490413948697</v>
+        <v>1.017988578900417</v>
       </c>
       <c r="N18">
-        <v>0.7883568634284406</v>
+        <v>1.012955733073587</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.7549879893788812</v>
+        <v>1.005558343262092</v>
       </c>
       <c r="D19">
-        <v>1.01480407889426</v>
+        <v>1.030973516194156</v>
       </c>
       <c r="E19">
-        <v>0.7930824309428054</v>
+        <v>1.008209756734078</v>
       </c>
       <c r="F19">
-        <v>0.7781401897217237</v>
+        <v>1.014928180796048</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027610109610293</v>
+        <v>1.031208887326135</v>
       </c>
       <c r="J19">
-        <v>0.787238893901537</v>
+        <v>1.011841829669849</v>
       </c>
       <c r="K19">
-        <v>1.025787185017624</v>
+        <v>1.034300443782313</v>
       </c>
       <c r="L19">
-        <v>0.8080528797190815</v>
+        <v>1.011617411009766</v>
       </c>
       <c r="M19">
-        <v>0.793490413948697</v>
+        <v>1.018311594102305</v>
       </c>
       <c r="N19">
-        <v>0.7883568634284406</v>
+        <v>1.013278761127861</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.7549879893788812</v>
+        <v>1.003975686343305</v>
       </c>
       <c r="D20">
-        <v>1.01480407889426</v>
+        <v>1.030685790539495</v>
       </c>
       <c r="E20">
-        <v>0.7930824309428054</v>
+        <v>1.006828198556951</v>
       </c>
       <c r="F20">
-        <v>0.7781401897217237</v>
+        <v>1.01340800421455</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027610109610293</v>
+        <v>1.031042890138423</v>
       </c>
       <c r="J20">
-        <v>0.787238893901537</v>
+        <v>1.010395484146244</v>
       </c>
       <c r="K20">
-        <v>1.025787185017624</v>
+        <v>1.034078001681863</v>
       </c>
       <c r="L20">
-        <v>0.8080528797190815</v>
+        <v>1.010306914248999</v>
       </c>
       <c r="M20">
-        <v>0.793490413948697</v>
+        <v>1.016862412844534</v>
       </c>
       <c r="N20">
-        <v>0.7883568634284406</v>
+        <v>1.011830361627714</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.7549879893788812</v>
+        <v>0.9987600038442006</v>
       </c>
       <c r="D21">
-        <v>1.01480407889426</v>
+        <v>1.0297373565282</v>
       </c>
       <c r="E21">
-        <v>0.7930824309428054</v>
+        <v>1.002274923619514</v>
       </c>
       <c r="F21">
-        <v>0.7781401897217237</v>
+        <v>1.008382461832021</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027610109610293</v>
+        <v>1.030488849008523</v>
       </c>
       <c r="J21">
-        <v>0.787238893901537</v>
+        <v>1.005625751592298</v>
       </c>
       <c r="K21">
-        <v>1.025787185017624</v>
+        <v>1.033340958713663</v>
       </c>
       <c r="L21">
-        <v>0.8080528797190815</v>
+        <v>1.005985267052826</v>
       </c>
       <c r="M21">
-        <v>0.793490413948697</v>
+        <v>1.012068507650695</v>
       </c>
       <c r="N21">
-        <v>0.7883568634284406</v>
+        <v>1.007053855506444</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7549879893788812</v>
+        <v>0.9954241946905454</v>
       </c>
       <c r="D22">
-        <v>1.01480407889426</v>
+        <v>1.029130775539129</v>
       </c>
       <c r="E22">
-        <v>0.7930824309428054</v>
+        <v>0.9993625465572125</v>
       </c>
       <c r="F22">
-        <v>0.7781401897217237</v>
+        <v>1.005156183717003</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027610109610293</v>
+        <v>1.030129207873483</v>
       </c>
       <c r="J22">
-        <v>0.787238893901537</v>
+        <v>1.002572649467712</v>
       </c>
       <c r="K22">
-        <v>1.025787185017624</v>
+        <v>1.032866639251936</v>
       </c>
       <c r="L22">
-        <v>0.8080528797190815</v>
+        <v>1.003219050401886</v>
       </c>
       <c r="M22">
-        <v>0.793490413948697</v>
+        <v>1.008988583318819</v>
       </c>
       <c r="N22">
-        <v>0.7883568634284406</v>
+        <v>1.003996417626646</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.7549879893788812</v>
+        <v>0.9971980999851382</v>
       </c>
       <c r="D23">
-        <v>1.01480407889426</v>
+        <v>1.029453327828638</v>
       </c>
       <c r="E23">
-        <v>0.7930824309428054</v>
+        <v>1.000911300605785</v>
       </c>
       <c r="F23">
-        <v>0.7781401897217237</v>
+        <v>1.006872978289883</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027610109610293</v>
+        <v>1.030320949667178</v>
       </c>
       <c r="J23">
-        <v>0.787238893901537</v>
+        <v>1.004196454236201</v>
       </c>
       <c r="K23">
-        <v>1.025787185017624</v>
+        <v>1.03311913834926</v>
       </c>
       <c r="L23">
-        <v>0.8080528797190815</v>
+        <v>1.004690267665705</v>
       </c>
       <c r="M23">
-        <v>0.793490413948697</v>
+        <v>1.010627719795297</v>
       </c>
       <c r="N23">
-        <v>0.7883568634284406</v>
+        <v>1.00562252838416</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.7549879893788812</v>
+        <v>1.004062207919258</v>
       </c>
       <c r="D24">
-        <v>1.01480407889426</v>
+        <v>1.030701521398709</v>
       </c>
       <c r="E24">
-        <v>0.7930824309428054</v>
+        <v>1.006903727588298</v>
       </c>
       <c r="F24">
-        <v>0.7781401897217237</v>
+        <v>1.013491169137747</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027610109610293</v>
+        <v>1.031051991326338</v>
       </c>
       <c r="J24">
-        <v>0.787238893901537</v>
+        <v>1.010474565995346</v>
       </c>
       <c r="K24">
-        <v>1.025787185017624</v>
+        <v>1.034090177481454</v>
       </c>
       <c r="L24">
-        <v>0.8080528797190815</v>
+        <v>1.010378567974035</v>
       </c>
       <c r="M24">
-        <v>0.793490413948697</v>
+        <v>1.016941705255876</v>
       </c>
       <c r="N24">
-        <v>0.7883568634284406</v>
+        <v>1.011909555782113</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.7549879893788812</v>
+        <v>1.01179818615028</v>
       </c>
       <c r="D25">
-        <v>1.01480407889426</v>
+        <v>1.032107137287027</v>
       </c>
       <c r="E25">
-        <v>0.7930824309428054</v>
+        <v>1.013656232607152</v>
       </c>
       <c r="F25">
-        <v>0.7781401897217237</v>
+        <v>1.020898532347099</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027610109610293</v>
+        <v>1.031852927474522</v>
       </c>
       <c r="J25">
-        <v>0.787238893901537</v>
+        <v>1.017539466192214</v>
       </c>
       <c r="K25">
-        <v>1.025787185017624</v>
+        <v>1.035171317594516</v>
       </c>
       <c r="L25">
-        <v>0.8080528797190815</v>
+        <v>1.016780019264983</v>
       </c>
       <c r="M25">
-        <v>0.793490413948697</v>
+        <v>1.023998641101585</v>
       </c>
       <c r="N25">
-        <v>0.7883568634284406</v>
+        <v>1.018984488947615</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_146/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_146/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017800088035567</v>
+        <v>0.717050995037421</v>
       </c>
       <c r="D2">
-        <v>1.033195546244979</v>
+        <v>1.009483238344943</v>
       </c>
       <c r="E2">
-        <v>1.018894137335163</v>
+        <v>0.760879388920615</v>
       </c>
       <c r="F2">
-        <v>1.026603798390642</v>
+        <v>0.7413425397770681</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032455306622417</v>
+        <v>1.022909326660384</v>
       </c>
       <c r="J2">
-        <v>1.023012145862818</v>
+        <v>0.7529579961924099</v>
       </c>
       <c r="K2">
-        <v>1.035998593965702</v>
+        <v>1.020812018851101</v>
       </c>
       <c r="L2">
-        <v>1.021738998724512</v>
+        <v>0.7771110715198712</v>
       </c>
       <c r="M2">
-        <v>1.029425961288676</v>
+        <v>0.758152821430621</v>
       </c>
       <c r="N2">
-        <v>1.024464940451079</v>
+        <v>0.7540272829124923</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022068028152732</v>
+        <v>0.8014985864608006</v>
       </c>
       <c r="D3">
-        <v>1.033967689226101</v>
+        <v>1.021996373483075</v>
       </c>
       <c r="E3">
-        <v>1.022618182624449</v>
+        <v>0.8327911565243876</v>
       </c>
       <c r="F3">
-        <v>1.030636451199123</v>
+        <v>0.8238163847379739</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032872349603414</v>
+        <v>1.033697563670847</v>
       </c>
       <c r="J3">
-        <v>1.026898778688175</v>
+        <v>0.8293858738496593</v>
       </c>
       <c r="K3">
-        <v>1.036579765047623</v>
+        <v>1.032355334726642</v>
       </c>
       <c r="L3">
-        <v>1.025260943140016</v>
+        <v>0.8461297284575205</v>
       </c>
       <c r="M3">
-        <v>1.033257457600933</v>
+        <v>0.8373412931296579</v>
       </c>
       <c r="N3">
-        <v>1.028357092740849</v>
+        <v>0.8305636969224153</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024790381117828</v>
+        <v>0.8341793800210052</v>
       </c>
       <c r="D4">
-        <v>1.034459175664764</v>
+        <v>1.0274615395267</v>
       </c>
       <c r="E4">
-        <v>1.024993304244072</v>
+        <v>0.8608132570312437</v>
       </c>
       <c r="F4">
-        <v>1.033197377007351</v>
+        <v>0.8561264029516135</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033133035514955</v>
+        <v>1.038142086261778</v>
       </c>
       <c r="J4">
-        <v>1.029375600737346</v>
+        <v>0.8590434681588035</v>
       </c>
       <c r="K4">
-        <v>1.036947043204712</v>
+        <v>1.037239451410987</v>
       </c>
       <c r="L4">
-        <v>1.027505426171509</v>
+        <v>0.8729431286473064</v>
       </c>
       <c r="M4">
-        <v>1.035688449974263</v>
+        <v>0.8683396021174965</v>
       </c>
       <c r="N4">
-        <v>1.030837432161425</v>
+        <v>0.8602634084172521</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025925781571071</v>
+        <v>0.8459053874201333</v>
       </c>
       <c r="D5">
-        <v>1.034663882202422</v>
+        <v>1.029499994215642</v>
       </c>
       <c r="E5">
-        <v>1.025983811699965</v>
+        <v>0.8708880284117502</v>
       </c>
       <c r="F5">
-        <v>1.034262718673621</v>
+        <v>0.8677407891937577</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033240466388023</v>
+        <v>1.039762216790606</v>
       </c>
       <c r="J5">
-        <v>1.030408043806647</v>
+        <v>0.8696882247857652</v>
       </c>
       <c r="K5">
-        <v>1.037099379581727</v>
+        <v>1.039038942871335</v>
       </c>
       <c r="L5">
-        <v>1.028441036548954</v>
+        <v>0.882570547107844</v>
       </c>
       <c r="M5">
-        <v>1.036699211569928</v>
+        <v>0.879476056506207</v>
       </c>
       <c r="N5">
-        <v>1.031871341418307</v>
+        <v>0.8709232818195949</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026115897351467</v>
+        <v>0.8477859291413524</v>
       </c>
       <c r="D6">
-        <v>1.034698142048261</v>
+        <v>1.029830569780035</v>
       </c>
       <c r="E6">
-        <v>1.026149661595702</v>
+        <v>0.8725046641009203</v>
       </c>
       <c r="F6">
-        <v>1.034440942637748</v>
+        <v>0.8696039507416888</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033258378695465</v>
+        <v>1.04002306204218</v>
       </c>
       <c r="J6">
-        <v>1.030580887391164</v>
+        <v>0.8713954068295657</v>
       </c>
       <c r="K6">
-        <v>1.037124837259005</v>
+        <v>1.039329647156481</v>
       </c>
       <c r="L6">
-        <v>1.028597670106555</v>
+        <v>0.8841147313494261</v>
       </c>
       <c r="M6">
-        <v>1.036868273573103</v>
+        <v>0.8812621678014533</v>
       </c>
       <c r="N6">
-        <v>1.03204443046054</v>
+        <v>0.8726328882577138</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024805587633108</v>
+        <v>0.8343424858544709</v>
       </c>
       <c r="D7">
-        <v>1.03446191844057</v>
+        <v>1.02748962072885</v>
       </c>
       <c r="E7">
-        <v>1.025006570492382</v>
+        <v>0.8609533257419556</v>
       </c>
       <c r="F7">
-        <v>1.033211656014271</v>
+        <v>0.8562879064182463</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033134479461276</v>
+        <v>1.038164541610776</v>
       </c>
       <c r="J7">
-        <v>1.029389430524962</v>
+        <v>0.8591915280673608</v>
       </c>
       <c r="K7">
-        <v>1.036949086809835</v>
+        <v>1.037264321665256</v>
       </c>
       <c r="L7">
-        <v>1.027517958801846</v>
+        <v>0.8730770261272565</v>
       </c>
       <c r="M7">
-        <v>1.035701999520818</v>
+        <v>0.8684944863184412</v>
       </c>
       <c r="N7">
-        <v>1.030851281588925</v>
+        <v>0.8604116785878622</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019250796406235</v>
+        <v>0.7549879893788743</v>
       </c>
       <c r="D8">
-        <v>1.033458202917035</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E8">
-        <v>1.020160033003057</v>
+        <v>0.7930824309427995</v>
       </c>
       <c r="F8">
-        <v>1.027976893379196</v>
+        <v>0.7781401897217165</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032598167485443</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J8">
-        <v>1.024333726612973</v>
+        <v>0.7872388939015306</v>
       </c>
       <c r="K8">
-        <v>1.036196842267722</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L8">
-        <v>1.022936560305088</v>
+        <v>0.8080528797190758</v>
       </c>
       <c r="M8">
-        <v>1.030731020661109</v>
+        <v>0.7934904139486898</v>
       </c>
       <c r="N8">
-        <v>1.025788397997484</v>
+        <v>0.7883568634284339</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009146104565222</v>
+        <v>0.7549879893788743</v>
       </c>
       <c r="D9">
-        <v>1.031625510542972</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E9">
-        <v>1.011341455394019</v>
+        <v>0.7930824309427995</v>
       </c>
       <c r="F9">
-        <v>1.018365623020189</v>
+        <v>0.7781401897217165</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031581292705645</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J9">
-        <v>1.015118789941926</v>
+        <v>0.7872388939015306</v>
       </c>
       <c r="K9">
-        <v>1.034802424814877</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L9">
-        <v>1.014586628014222</v>
+        <v>0.8080528797190758</v>
       </c>
       <c r="M9">
-        <v>1.021586820279749</v>
+        <v>0.7934904139486898</v>
       </c>
       <c r="N9">
-        <v>1.016560375059396</v>
+        <v>0.7883568634284339</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002174007647134</v>
+        <v>0.7549879893788743</v>
       </c>
       <c r="D10">
-        <v>1.030358193332946</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E10">
-        <v>1.005255391497313</v>
+        <v>0.7930824309427995</v>
       </c>
       <c r="F10">
-        <v>1.011674696245521</v>
+        <v>0.7781401897217165</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030852693276357</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J10">
-        <v>1.008748410132611</v>
+        <v>0.7872388939015306</v>
       </c>
       <c r="K10">
-        <v>1.033824071269007</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L10">
-        <v>1.008814557471636</v>
+        <v>0.8080528797190758</v>
       </c>
       <c r="M10">
-        <v>1.015209518669031</v>
+        <v>0.7934904139486898</v>
       </c>
       <c r="N10">
-        <v>1.010180948580059</v>
+        <v>0.7883568634284339</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9990936587716028</v>
+        <v>0.7549879893788743</v>
       </c>
       <c r="D11">
-        <v>1.029798032491476</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E11">
-        <v>1.00256621685782</v>
+        <v>0.7930824309427995</v>
       </c>
       <c r="F11">
-        <v>1.008704654986604</v>
+        <v>0.7781401897217165</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030524600704798</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J11">
-        <v>1.005931024164105</v>
+        <v>0.7872388939015306</v>
       </c>
       <c r="K11">
-        <v>1.033388281081302</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L11">
-        <v>1.006261857414141</v>
+        <v>0.8080528797190758</v>
       </c>
       <c r="M11">
-        <v>1.012375986718477</v>
+        <v>0.7934904139486898</v>
       </c>
       <c r="N11">
-        <v>1.007359561600319</v>
+        <v>0.7883568634284339</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9979397605317367</v>
+        <v>0.7549879893788743</v>
       </c>
       <c r="D12">
-        <v>1.029588195173215</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E12">
-        <v>1.001558813250288</v>
+        <v>0.7930824309427995</v>
       </c>
       <c r="F12">
-        <v>1.00758999962792</v>
+        <v>0.7781401897217165</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030400785558786</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J12">
-        <v>1.004875199893915</v>
+        <v>0.7872388939015306</v>
       </c>
       <c r="K12">
-        <v>1.03322452840547</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L12">
-        <v>1.005305236422759</v>
+        <v>0.8080528797190758</v>
       </c>
       <c r="M12">
-        <v>1.011312158993767</v>
+        <v>0.7934904139486898</v>
       </c>
       <c r="N12">
-        <v>1.006302237938561</v>
+        <v>0.7883568634284339</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.998187723763616</v>
+        <v>0.7549879893788743</v>
       </c>
       <c r="D13">
-        <v>1.029633286953088</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E13">
-        <v>1.001775297702089</v>
+        <v>0.7930824309427995</v>
       </c>
       <c r="F13">
-        <v>1.007829623626836</v>
+        <v>0.7781401897217165</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03042743332659</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J13">
-        <v>1.00510210733953</v>
+        <v>0.7872388939015306</v>
       </c>
       <c r="K13">
-        <v>1.033259739933285</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L13">
-        <v>1.005510823551194</v>
+        <v>0.8080528797190758</v>
       </c>
       <c r="M13">
-        <v>1.011540874509949</v>
+        <v>0.7934904139486898</v>
       </c>
       <c r="N13">
-        <v>1.006529467618775</v>
+        <v>0.7883568634284339</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9989984784386189</v>
+        <v>0.7549879893788743</v>
       </c>
       <c r="D14">
-        <v>1.029780723685592</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E14">
-        <v>1.002483121041648</v>
+        <v>0.7930824309427995</v>
       </c>
       <c r="F14">
-        <v>1.008612753850853</v>
+        <v>0.7781401897217165</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030514406144183</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J14">
-        <v>1.005843942330964</v>
+        <v>0.7872388939015306</v>
       </c>
       <c r="K14">
-        <v>1.033374783928876</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L14">
-        <v>1.006182957395123</v>
+        <v>0.8080528797190758</v>
       </c>
       <c r="M14">
-        <v>1.01228828442813</v>
+        <v>0.7934904139486898</v>
       </c>
       <c r="N14">
-        <v>1.007272356100987</v>
+        <v>0.7883568634284339</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9994967078469681</v>
+        <v>0.7549879893788743</v>
       </c>
       <c r="D15">
-        <v>1.02987132824512</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E15">
-        <v>1.002918091459799</v>
+        <v>0.7930824309427995</v>
       </c>
       <c r="F15">
-        <v>1.00909373327786</v>
+        <v>0.7781401897217165</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030567733323051</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J15">
-        <v>1.006299761844885</v>
+        <v>0.7872388939015306</v>
       </c>
       <c r="K15">
-        <v>1.033445415420255</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L15">
-        <v>1.006595950640346</v>
+        <v>0.8080528797190758</v>
       </c>
       <c r="M15">
-        <v>1.012747272046497</v>
+        <v>0.7934904139486898</v>
       </c>
       <c r="N15">
-        <v>1.007728822930901</v>
+        <v>0.7883568634284339</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002377105190726</v>
+        <v>0.7549879893788743</v>
       </c>
       <c r="D16">
-        <v>1.030395124453193</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E16">
-        <v>1.005432691983264</v>
+        <v>0.7930824309427995</v>
       </c>
       <c r="F16">
-        <v>1.011870231048913</v>
+        <v>0.7781401897217165</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03087419767178</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J16">
-        <v>1.008934109521091</v>
+        <v>0.7872388939015306</v>
       </c>
       <c r="K16">
-        <v>1.033852732539521</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L16">
-        <v>1.008982812477802</v>
+        <v>0.8080528797190758</v>
       </c>
       <c r="M16">
-        <v>1.015396010026079</v>
+        <v>0.7934904139486898</v>
       </c>
       <c r="N16">
-        <v>1.010366911682971</v>
+        <v>0.7883568634284339</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004167126169284</v>
+        <v>0.7549879893788743</v>
       </c>
       <c r="D17">
-        <v>1.030720596852795</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E17">
-        <v>1.006995315812413</v>
+        <v>0.7930824309427995</v>
       </c>
       <c r="F17">
-        <v>1.01359200792516</v>
+        <v>0.7781401897217165</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031063023601321</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J17">
-        <v>1.010570460760525</v>
+        <v>0.7872388939015306</v>
       </c>
       <c r="K17">
-        <v>1.034104939832208</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L17">
-        <v>1.010465455434491</v>
+        <v>0.8080528797190758</v>
       </c>
       <c r="M17">
-        <v>1.017037846795745</v>
+        <v>0.7934904139486898</v>
       </c>
       <c r="N17">
-        <v>1.012005586728857</v>
+        <v>0.7883568634284339</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005205327480394</v>
+        <v>0.7549879893788743</v>
       </c>
       <c r="D18">
-        <v>1.030909342989097</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E18">
-        <v>1.007901600747505</v>
+        <v>0.7930824309427995</v>
       </c>
       <c r="F18">
-        <v>1.014589300579567</v>
+        <v>0.7781401897217165</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03117195023187</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J18">
-        <v>1.011519259701929</v>
+        <v>0.7872388939015306</v>
       </c>
       <c r="K18">
-        <v>1.034250878999997</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L18">
-        <v>1.011325137517374</v>
+        <v>0.8080528797190758</v>
       </c>
       <c r="M18">
-        <v>1.017988578900417</v>
+        <v>0.7934904139486898</v>
       </c>
       <c r="N18">
-        <v>1.012955733073587</v>
+        <v>0.7883568634284339</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005558343262092</v>
+        <v>0.7549879893788743</v>
       </c>
       <c r="D19">
-        <v>1.030973516194156</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E19">
-        <v>1.008209756734078</v>
+        <v>0.7930824309427995</v>
       </c>
       <c r="F19">
-        <v>1.014928180796048</v>
+        <v>0.7781401897217165</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031208887326135</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J19">
-        <v>1.011841829669849</v>
+        <v>0.7872388939015306</v>
       </c>
       <c r="K19">
-        <v>1.034300443782313</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L19">
-        <v>1.011617411009766</v>
+        <v>0.8080528797190758</v>
       </c>
       <c r="M19">
-        <v>1.018311594102305</v>
+        <v>0.7934904139486898</v>
       </c>
       <c r="N19">
-        <v>1.013278761127861</v>
+        <v>0.7883568634284339</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003975686343305</v>
+        <v>0.7549879893788743</v>
       </c>
       <c r="D20">
-        <v>1.030685790539495</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E20">
-        <v>1.006828198556951</v>
+        <v>0.7930824309427995</v>
       </c>
       <c r="F20">
-        <v>1.01340800421455</v>
+        <v>0.7781401897217165</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031042890138423</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J20">
-        <v>1.010395484146244</v>
+        <v>0.7872388939015306</v>
       </c>
       <c r="K20">
-        <v>1.034078001681863</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L20">
-        <v>1.010306914248999</v>
+        <v>0.8080528797190758</v>
       </c>
       <c r="M20">
-        <v>1.016862412844534</v>
+        <v>0.7934904139486898</v>
       </c>
       <c r="N20">
-        <v>1.011830361627714</v>
+        <v>0.7883568634284339</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9987600038442006</v>
+        <v>0.7549879893788743</v>
       </c>
       <c r="D21">
-        <v>1.0297373565282</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E21">
-        <v>1.002274923619514</v>
+        <v>0.7930824309427995</v>
       </c>
       <c r="F21">
-        <v>1.008382461832021</v>
+        <v>0.7781401897217165</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030488849008523</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J21">
-        <v>1.005625751592298</v>
+        <v>0.7872388939015306</v>
       </c>
       <c r="K21">
-        <v>1.033340958713663</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L21">
-        <v>1.005985267052826</v>
+        <v>0.8080528797190758</v>
       </c>
       <c r="M21">
-        <v>1.012068507650695</v>
+        <v>0.7934904139486898</v>
       </c>
       <c r="N21">
-        <v>1.007053855506444</v>
+        <v>0.7883568634284339</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9954241946905454</v>
+        <v>0.7549879893788743</v>
       </c>
       <c r="D22">
-        <v>1.029130775539129</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E22">
-        <v>0.9993625465572125</v>
+        <v>0.7930824309427995</v>
       </c>
       <c r="F22">
-        <v>1.005156183717003</v>
+        <v>0.7781401897217165</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030129207873483</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J22">
-        <v>1.002572649467712</v>
+        <v>0.7872388939015306</v>
       </c>
       <c r="K22">
-        <v>1.032866639251936</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L22">
-        <v>1.003219050401886</v>
+        <v>0.8080528797190758</v>
       </c>
       <c r="M22">
-        <v>1.008988583318819</v>
+        <v>0.7934904139486898</v>
       </c>
       <c r="N22">
-        <v>1.003996417626646</v>
+        <v>0.7883568634284339</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9971980999851382</v>
+        <v>0.7549879893788743</v>
       </c>
       <c r="D23">
-        <v>1.029453327828638</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E23">
-        <v>1.000911300605785</v>
+        <v>0.7930824309427995</v>
       </c>
       <c r="F23">
-        <v>1.006872978289883</v>
+        <v>0.7781401897217165</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030320949667178</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J23">
-        <v>1.004196454236201</v>
+        <v>0.7872388939015306</v>
       </c>
       <c r="K23">
-        <v>1.03311913834926</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L23">
-        <v>1.004690267665705</v>
+        <v>0.8080528797190758</v>
       </c>
       <c r="M23">
-        <v>1.010627719795297</v>
+        <v>0.7934904139486898</v>
       </c>
       <c r="N23">
-        <v>1.00562252838416</v>
+        <v>0.7883568634284339</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004062207919258</v>
+        <v>0.7549879893788743</v>
       </c>
       <c r="D24">
-        <v>1.030701521398709</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E24">
-        <v>1.006903727588298</v>
+        <v>0.7930824309427995</v>
       </c>
       <c r="F24">
-        <v>1.013491169137747</v>
+        <v>0.7781401897217165</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031051991326338</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J24">
-        <v>1.010474565995346</v>
+        <v>0.7872388939015306</v>
       </c>
       <c r="K24">
-        <v>1.034090177481454</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L24">
-        <v>1.010378567974035</v>
+        <v>0.8080528797190758</v>
       </c>
       <c r="M24">
-        <v>1.016941705255876</v>
+        <v>0.7934904139486898</v>
       </c>
       <c r="N24">
-        <v>1.011909555782113</v>
+        <v>0.7883568634284339</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01179818615028</v>
+        <v>0.7549879893788743</v>
       </c>
       <c r="D25">
-        <v>1.032107137287027</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E25">
-        <v>1.013656232607152</v>
+        <v>0.7930824309427995</v>
       </c>
       <c r="F25">
-        <v>1.020898532347099</v>
+        <v>0.7781401897217165</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031852927474522</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J25">
-        <v>1.017539466192214</v>
+        <v>0.7872388939015306</v>
       </c>
       <c r="K25">
-        <v>1.035171317594516</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L25">
-        <v>1.016780019264983</v>
+        <v>0.8080528797190758</v>
       </c>
       <c r="M25">
-        <v>1.023998641101585</v>
+        <v>0.7934904139486898</v>
       </c>
       <c r="N25">
-        <v>1.018984488947615</v>
+        <v>0.7883568634284339</v>
       </c>
     </row>
   </sheetData>
